--- a/note/05.데이터베이스 정의서.xlsx
+++ b/note/05.데이터베이스 정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11745" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11745" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 관리" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="254">
   <si>
     <t>문서 이력 관리</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2 (50)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>강의요약</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -377,14 +373,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2 (15)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>class_infoable 기술서</t>
   </si>
   <si>
@@ -400,9 +388,6 @@
     <t>Descripclass_infoion</t>
   </si>
   <si>
-    <t>class_info_tutor_email</t>
-  </si>
-  <si>
     <t>class_info_summery</t>
   </si>
   <si>
@@ -410,12 +395,6 @@
   </si>
   <si>
     <t>class_info_category1</t>
-  </si>
-  <si>
-    <t>class_info_category2</t>
-  </si>
-  <si>
-    <t>class_info_category3</t>
   </si>
   <si>
     <t>class_info</t>
@@ -617,9 +596,6 @@
       <t>안내글</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_curriable 기술서</t>
   </si>
   <si>
     <t>Sysclass_curriem</t>
@@ -1606,6 +1582,18 @@
       </rPr>
       <t>date</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_section 기술서</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2135,120 +2123,123 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2261,12 +2252,60 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,70 +2321,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -2647,147 +2635,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:7" ht="23.25" customHeight="1">
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2856,47 +2844,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -2927,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -2936,13 +2924,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>178</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -2958,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -2970,11 +2958,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -2984,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>24</v>
@@ -2994,11 +2982,11 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -3008,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>24</v>
@@ -3018,11 +3006,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
@@ -3032,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -3042,11 +3030,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -3058,21 +3046,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="H11" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -3084,21 +3072,21 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -3110,21 +3098,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -3136,23 +3124,23 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12">
         <v>0</v>
       </c>
-      <c r="H14" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -3164,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>24</v>
@@ -3174,11 +3162,11 @@
       <c r="G15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -3194,9 +3182,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -3210,9 +3198,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -3226,9 +3214,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -3242,9 +3230,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -3258,9 +3246,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -3274,9 +3262,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -3291,50 +3279,60 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -3347,16 +3345,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3372,7 +3360,7 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3420,47 +3408,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -3502,11 +3490,11 @@
       <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -3521,8 +3509,8 @@
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="s">
-        <v>256</v>
+      <c r="C7" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -3534,11 +3522,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -3547,7 +3535,7 @@
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="48" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3560,11 +3548,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -3573,7 +3561,7 @@
       <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -3584,11 +3572,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
       <c r="O9" s="14"/>
@@ -3599,7 +3587,7 @@
       <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="49" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -3610,11 +3598,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -3625,7 +3613,7 @@
       <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3638,11 +3626,11 @@
         <v>28</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -3653,7 +3641,7 @@
       <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -3666,11 +3654,11 @@
       <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -3681,7 +3669,7 @@
       <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="49" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3690,11 +3678,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -3705,7 +3693,7 @@
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3714,11 +3702,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -3729,7 +3717,7 @@
       <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="49" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -3738,11 +3726,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -3753,8 +3741,8 @@
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="104" t="s">
-        <v>257</v>
+      <c r="C16" s="48" t="s">
+        <v>250</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>38</v>
@@ -3764,13 +3752,13 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -3779,7 +3767,7 @@
       <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3790,13 +3778,13 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -3805,7 +3793,7 @@
       <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="49" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3818,11 +3806,11 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -3831,8 +3819,8 @@
       <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="104" t="s">
-        <v>251</v>
+      <c r="C19" s="48" t="s">
+        <v>244</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>62</v>
@@ -3842,11 +3830,11 @@
       <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -3855,8 +3843,8 @@
       <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="104" t="s">
-        <v>209</v>
+      <c r="C20" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>24</v>
@@ -3868,64 +3856,52 @@
       <c r="G20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="21" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:13" ht="21" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="21" customHeight="1">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B21:J23"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
@@ -3934,6 +3910,18 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3998,47 +3986,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -4080,11 +4068,11 @@
       <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -4112,11 +4100,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -4138,11 +4126,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -4152,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>67</v>
@@ -4162,11 +4150,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
       <c r="O9" s="14"/>
@@ -4178,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>68</v>
@@ -4188,11 +4176,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -4204,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>34</v>
@@ -4212,11 +4200,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -4228,7 +4216,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>36</v>
@@ -4236,11 +4224,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -4252,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>24</v>
@@ -4264,11 +4252,11 @@
       <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -4282,9 +4270,9 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -4298,9 +4286,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -4314,9 +4302,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -4328,9 +4316,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -4342,9 +4330,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -4356,9 +4344,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -4370,9 +4358,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -4384,9 +4372,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -4399,50 +4387,60 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -4455,16 +4453,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4478,10 +4466,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4528,47 +4516,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -4599,7 +4587,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -4608,13 +4596,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>82</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -4629,8 +4617,8 @@
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>243</v>
+      <c r="C7" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -4642,11 +4630,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -4655,11 +4643,11 @@
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>75</v>
+      <c r="C8" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
@@ -4668,11 +4656,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -4681,22 +4669,22 @@
       <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>129</v>
+      <c r="C9" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
       <c r="O9" s="14"/>
@@ -4707,8 +4695,8 @@
       <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="104" t="s">
-        <v>88</v>
+      <c r="C10" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>68</v>
@@ -4718,11 +4706,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="H10" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -4733,22 +4721,22 @@
       <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="104" t="s">
-        <v>217</v>
+      <c r="C11" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="H11" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9"/>
@@ -4759,8 +4747,8 @@
       <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="104" t="s">
-        <v>89</v>
+      <c r="C12" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>68</v>
@@ -4769,7 +4757,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -4783,44 +4771,44 @@
       <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="104" t="s">
-        <v>90</v>
+      <c r="C13" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="12"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:22" ht="21" customHeight="1">
+    <row r="14" spans="1:22" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>80</v>
+      <c r="C14" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -4831,276 +4819,240 @@
       <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>92</v>
+      <c r="C15" s="107" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="23"/>
       <c r="J15" s="16"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:22" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="P15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:22" ht="21" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="104" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="12"/>
+      <c r="C16" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
+      <c r="H16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="16"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1">
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="16"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
-      <c r="P17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="21" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18" s="104" t="s">
-        <v>97</v>
+      <c r="C18" s="107" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1">
+    <row r="19" spans="1:17" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="104" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>99</v>
+      <c r="C19" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1">
+    <row r="20" spans="1:17" ht="21" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="104" t="s">
-        <v>101</v>
+      <c r="C20" s="107" t="s">
+        <v>240</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="16"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:19" s="48" customFormat="1" ht="21" customHeight="1">
+    <row r="21" spans="1:17" ht="21" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="104" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="C21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="16"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1">
+    <row r="22" spans="1:17" ht="21" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C22" s="104" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="7">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
       <c r="L23" s="8"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="21" customHeight="1">
+    <row r="24" spans="1:17" ht="21" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="7">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="1"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:19" ht="21" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" ht="21" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="53" t="s">
+      <c r="B24" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-    </row>
-    <row r="27" spans="1:19" ht="21" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="1:17" ht="21" customHeight="1">
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:17" ht="21" customHeight="1">
+      <c r="B26" s="75"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:J26"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B3:C4"/>
@@ -5108,16 +5060,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J28"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5133,8 +5075,8 @@
   </sheetPr>
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5182,18 +5124,18 @@
     </row>
     <row r="3" spans="1:22" ht="24.75" customHeight="1">
       <c r="A3" s="28"/>
-      <c r="B3" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="87"/>
+      <c r="B3" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="89"/>
       <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+        <v>107</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
@@ -5206,23 +5148,23 @@
     </row>
     <row r="4" spans="1:22" ht="24.75" customHeight="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
+        <v>209</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -5253,7 +5195,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>20</v>
@@ -5262,13 +5204,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+        <v>104</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -5284,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>24</v>
@@ -5296,11 +5238,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="35"/>
-      <c r="H7" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
+      <c r="H7" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
     </row>
@@ -5310,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>61</v>
@@ -5322,11 +5264,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="H8" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
@@ -5335,22 +5277,22 @@
       <c r="B9" s="30">
         <v>3</v>
       </c>
-      <c r="C9" s="107" t="s">
-        <v>240</v>
+      <c r="C9" s="108" t="s">
+        <v>233</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="O9" s="31"/>
@@ -5361,8 +5303,8 @@
       <c r="B10" s="30">
         <v>4</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>214</v>
+      <c r="C10" s="108" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>61</v>
@@ -5375,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="95" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I10" s="95"/>
       <c r="J10" s="96"/>
@@ -5412,9 +5354,9 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="Q12" s="31"/>
@@ -5430,9 +5372,9 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="Q13" s="31"/>
@@ -5448,9 +5390,9 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="Q14" s="31"/>
@@ -5466,9 +5408,9 @@
       <c r="E15" s="30"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="P15" s="31"/>
@@ -5484,9 +5426,9 @@
       <c r="E16" s="30"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
@@ -5500,9 +5442,9 @@
       <c r="E17" s="30"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
     </row>
@@ -5516,9 +5458,9 @@
       <c r="E18" s="30"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
     </row>
@@ -5532,9 +5474,9 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
@@ -5548,9 +5490,9 @@
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
@@ -5564,9 +5506,9 @@
       <c r="E21" s="30"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="Q21" s="31"/>
@@ -5581,50 +5523,60 @@
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="90"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -5637,16 +5589,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5711,47 +5653,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1">
@@ -5782,7 +5724,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -5791,13 +5733,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>103</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -5813,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -5825,11 +5767,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -5839,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>61</v>
@@ -5851,11 +5793,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -5865,21 +5807,21 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
       <c r="O9" s="14"/>
@@ -5891,21 +5833,21 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -5917,21 +5859,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="H11" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -5943,19 +5885,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -5967,19 +5909,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -5991,19 +5933,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -6019,9 +5961,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -6037,9 +5979,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -6053,9 +5995,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -6069,9 +6011,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -6085,9 +6027,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -6101,9 +6043,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -6117,9 +6059,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -6134,50 +6076,60 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -6190,16 +6142,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6263,47 +6205,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -6334,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -6343,13 +6285,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>118</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -6365,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -6377,11 +6319,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -6391,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>24</v>
@@ -6401,11 +6343,11 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -6415,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>24</v>
@@ -6427,11 +6369,11 @@
         <v>28</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
@@ -6441,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -6449,11 +6391,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -6465,19 +6407,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="H11" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -6489,19 +6431,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -6513,7 +6455,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>24</v>
@@ -6521,11 +6463,11 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -6537,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>24</v>
@@ -6547,11 +6489,11 @@
       <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -6567,9 +6509,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -6585,9 +6527,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -6601,9 +6543,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -6617,9 +6559,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -6633,9 +6575,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -6649,9 +6591,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -6665,9 +6607,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -6682,56 +6624,50 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H6:J6"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="H22:J22"/>
@@ -6748,6 +6684,12 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6811,47 +6753,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -6882,7 +6824,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -6891,13 +6833,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>143</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -6913,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -6925,11 +6867,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -6939,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>24</v>
@@ -6949,11 +6891,11 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -6963,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>24</v>
@@ -6973,11 +6915,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
@@ -6987,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -6997,11 +6939,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -7013,21 +6955,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="H11" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -7039,21 +6981,21 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -7065,21 +7007,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -7091,7 +7033,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>24</v>
@@ -7103,11 +7045,11 @@
       <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -7123,9 +7065,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -7141,9 +7083,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -7157,9 +7099,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -7173,9 +7115,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -7189,9 +7131,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -7205,9 +7147,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -7221,9 +7163,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -7238,50 +7180,60 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -7294,16 +7246,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7367,47 +7309,47 @@
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="55"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="57"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1">
@@ -7438,7 +7380,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>20</v>
@@ -7447,13 +7389,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+        <v>162</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="8"/>
@@ -7469,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>24</v>
@@ -7481,11 +7423,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
@@ -7495,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>24</v>
@@ -7505,11 +7447,11 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="H8" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
@@ -7519,7 +7461,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>24</v>
@@ -7529,11 +7471,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="H9" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
@@ -7543,7 +7485,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -7553,11 +7495,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="9"/>
@@ -7569,21 +7511,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="H11" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="9"/>
@@ -7595,21 +7537,21 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="Q12" s="14"/>
@@ -7621,21 +7563,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="14"/>
@@ -7647,7 +7589,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>24</v>
@@ -7655,11 +7597,11 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="H14" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="Q14" s="14"/>
@@ -7675,9 +7617,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="P15" s="14"/>
@@ -7693,9 +7635,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
     </row>
@@ -7709,9 +7651,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
     </row>
@@ -7725,9 +7667,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
     </row>
@@ -7741,9 +7683,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
     </row>
@@ -7757,9 +7699,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
     </row>
@@ -7773,9 +7715,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="Q21" s="9"/>
@@ -7790,50 +7732,60 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:J25"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="E3:G3"/>
@@ -7846,16 +7798,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:J25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
